--- a/Mifos Automation Excels/Loan Product/4131-RBI-EI-FL-DL-NOREC-MOREREPAY-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/4131-RBI-EI-FL-DL-NOREC-MOREREPAY-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>productname</t>
   </si>
@@ -98,7 +98,10 @@
     <t>Flat</t>
   </si>
   <si>
-    <t>4131-RBI-EI-FL-DL-NOREC-MOREREPAY</t>
+    <t>4131-RBI-EI-FL-DL-NOREC-MOREREPAY-1st</t>
+  </si>
+  <si>
+    <t>413w</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -502,8 +505,8 @@
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>4131</v>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -644,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
